--- a/data/7132.xlsx
+++ b/data/7132.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1212"/>
+  <dimension ref="A1:I1213"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44292,6 +44292,41 @@
         <v>21500</v>
       </c>
     </row>
+    <row r="1213">
+      <c r="A1213" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1213" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1213" t="inlineStr">
+        <is>
+          <t>7132</t>
+        </is>
+      </c>
+      <c r="D1213" t="inlineStr">
+        <is>
+          <t>SMISCOR</t>
+        </is>
+      </c>
+      <c r="E1213" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F1213" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="G1213" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="H1213" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I1213" t="n">
+        <v>1500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7132.xlsx
+++ b/data/7132.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1213"/>
+  <dimension ref="A1:I1214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44327,6 +44327,41 @@
         <v>1500</v>
       </c>
     </row>
+    <row r="1214">
+      <c r="A1214" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1214" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1214" t="inlineStr">
+        <is>
+          <t>7132</t>
+        </is>
+      </c>
+      <c r="D1214" t="inlineStr">
+        <is>
+          <t>SMISCOR</t>
+        </is>
+      </c>
+      <c r="E1214" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F1214" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="G1214" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H1214" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="I1214" t="n">
+        <v>5000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7132.xlsx
+++ b/data/7132.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1214"/>
+  <dimension ref="A1:I1215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44362,6 +44362,43 @@
         <v>5000</v>
       </c>
     </row>
+    <row r="1215">
+      <c r="A1215" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1215" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1215" t="inlineStr">
+        <is>
+          <t>7132</t>
+        </is>
+      </c>
+      <c r="D1215" t="inlineStr">
+        <is>
+          <t>SMISCOR</t>
+        </is>
+      </c>
+      <c r="E1215" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="F1215" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="G1215" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="H1215" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="I1215" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7132.xlsx
+++ b/data/7132.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1215"/>
+  <dimension ref="A1:I1216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44399,6 +44399,43 @@
         </is>
       </c>
     </row>
+    <row r="1216">
+      <c r="A1216" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1216" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1216" t="inlineStr">
+        <is>
+          <t>7132</t>
+        </is>
+      </c>
+      <c r="D1216" t="inlineStr">
+        <is>
+          <t>SMISCOR</t>
+        </is>
+      </c>
+      <c r="E1216" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="F1216" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="G1216" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="H1216" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="I1216" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7132.xlsx
+++ b/data/7132.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1216"/>
+  <dimension ref="A1:I1217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44436,6 +44436,41 @@
         </is>
       </c>
     </row>
+    <row r="1217">
+      <c r="A1217" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1217" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1217" t="inlineStr">
+        <is>
+          <t>7132</t>
+        </is>
+      </c>
+      <c r="D1217" t="inlineStr">
+        <is>
+          <t>SMISCOR</t>
+        </is>
+      </c>
+      <c r="E1217" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="F1217" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="G1217" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="H1217" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="I1217" t="n">
+        <v>4500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7132.xlsx
+++ b/data/7132.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44471,6 +44471,41 @@
         <v>4500</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>7132</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>SMISCOR</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7132.xlsx
+++ b/data/7132.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44506,6 +44506,43 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>7132</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>SMISCOR</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I1219" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7132.xlsx
+++ b/data/7132.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44543,6 +44543,43 @@
         </is>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>7132</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>SMISCOR</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I1220" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7132.xlsx
+++ b/data/7132.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44580,6 +44580,43 @@
         </is>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>7132</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>SMISCOR</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I1221" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7132.xlsx
+++ b/data/7132.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44617,6 +44617,41 @@
         </is>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>7132</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>SMISCOR</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>11000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7132.xlsx
+++ b/data/7132.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44652,6 +44652,41 @@
         <v>11000</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>7132</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>SMISCOR</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>10100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7132.xlsx
+++ b/data/7132.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44687,6 +44687,43 @@
         <v>10100</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>7132</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>SMISCOR</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="I1224" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7132.xlsx
+++ b/data/7132.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44724,6 +44724,80 @@
         </is>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>7132</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>SMISCOR</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="I1225" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>7132</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>SMISCOR</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="I1226" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7132.xlsx
+++ b/data/7132.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44798,6 +44798,76 @@
         </is>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>7132</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>SMISCOR</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>7132</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>SMISCOR</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>1100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7132.xlsx
+++ b/data/7132.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44868,6 +44868,41 @@
         <v>1100</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>7132</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>SMISCOR</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>11700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7132.xlsx
+++ b/data/7132.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44903,6 +44903,41 @@
         <v>11700</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>7132</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>SMISCOR</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7132.xlsx
+++ b/data/7132.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1230"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44938,6 +44938,43 @@
         <v>700</v>
       </c>
     </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>7132</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>SMISCOR</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="I1231" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7132.xlsx
+++ b/data/7132.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44975,6 +44975,76 @@
         </is>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>7132</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>SMISCOR</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>10400</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>7132</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>SMISCOR</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7132.xlsx
+++ b/data/7132.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2054"/>
+  <dimension ref="A1:I2055"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73780,6 +73780,43 @@
         <v>200</v>
       </c>
     </row>
+    <row r="2055">
+      <c r="A2055" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2055" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2055" t="inlineStr">
+        <is>
+          <t>7132</t>
+        </is>
+      </c>
+      <c r="D2055" t="inlineStr">
+        <is>
+          <t>SMISCOR</t>
+        </is>
+      </c>
+      <c r="E2055" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F2055" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G2055" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H2055" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I2055" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7132.xlsx
+++ b/data/7132.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2055"/>
+  <dimension ref="A1:I2056"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73817,6 +73817,43 @@
         </is>
       </c>
     </row>
+    <row r="2056">
+      <c r="A2056" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2056" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2056" t="inlineStr">
+        <is>
+          <t>7132</t>
+        </is>
+      </c>
+      <c r="D2056" t="inlineStr">
+        <is>
+          <t>SMISCOR</t>
+        </is>
+      </c>
+      <c r="E2056" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F2056" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G2056" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H2056" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I2056" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7132.xlsx
+++ b/data/7132.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2056"/>
+  <dimension ref="A1:I2057"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73854,6 +73854,43 @@
         </is>
       </c>
     </row>
+    <row r="2057">
+      <c r="A2057" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2057" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2057" t="inlineStr">
+        <is>
+          <t>7132</t>
+        </is>
+      </c>
+      <c r="D2057" t="inlineStr">
+        <is>
+          <t>SMISCOR</t>
+        </is>
+      </c>
+      <c r="E2057" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F2057" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G2057" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H2057" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I2057" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7132.xlsx
+++ b/data/7132.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2057"/>
+  <dimension ref="A1:I2058"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73891,6 +73891,43 @@
         </is>
       </c>
     </row>
+    <row r="2058">
+      <c r="A2058" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2058" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2058" t="inlineStr">
+        <is>
+          <t>7132</t>
+        </is>
+      </c>
+      <c r="D2058" t="inlineStr">
+        <is>
+          <t>SMISCOR</t>
+        </is>
+      </c>
+      <c r="E2058" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F2058" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G2058" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H2058" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I2058" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7132.xlsx
+++ b/data/7132.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2058"/>
+  <dimension ref="A1:I2059"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73928,6 +73928,43 @@
         </is>
       </c>
     </row>
+    <row r="2059">
+      <c r="A2059" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2059" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2059" t="inlineStr">
+        <is>
+          <t>7132</t>
+        </is>
+      </c>
+      <c r="D2059" t="inlineStr">
+        <is>
+          <t>SMISCOR</t>
+        </is>
+      </c>
+      <c r="E2059" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F2059" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G2059" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H2059" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I2059" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7132.xlsx
+++ b/data/7132.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2059"/>
+  <dimension ref="A1:I2060"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73965,6 +73965,43 @@
         </is>
       </c>
     </row>
+    <row r="2060">
+      <c r="A2060" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2060" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2060" t="inlineStr">
+        <is>
+          <t>7132</t>
+        </is>
+      </c>
+      <c r="D2060" t="inlineStr">
+        <is>
+          <t>SMISCOR</t>
+        </is>
+      </c>
+      <c r="E2060" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F2060" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G2060" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H2060" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I2060" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7132.xlsx
+++ b/data/7132.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2060"/>
+  <dimension ref="A1:I2061"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74002,6 +74002,41 @@
         </is>
       </c>
     </row>
+    <row r="2061">
+      <c r="A2061" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2061" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2061" t="inlineStr">
+        <is>
+          <t>7132</t>
+        </is>
+      </c>
+      <c r="D2061" t="inlineStr">
+        <is>
+          <t>SMISCOR</t>
+        </is>
+      </c>
+      <c r="E2061" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="F2061" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G2061" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H2061" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I2061" t="n">
+        <v>11700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7132.xlsx
+++ b/data/7132.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2061"/>
+  <dimension ref="A1:I2062"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74037,6 +74037,43 @@
         <v>11700</v>
       </c>
     </row>
+    <row r="2062">
+      <c r="A2062" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2062" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2062" t="inlineStr">
+        <is>
+          <t>7132</t>
+        </is>
+      </c>
+      <c r="D2062" t="inlineStr">
+        <is>
+          <t>SMISCOR</t>
+        </is>
+      </c>
+      <c r="E2062" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F2062" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G2062" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H2062" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I2062" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7132.xlsx
+++ b/data/7132.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2062"/>
+  <dimension ref="A1:I2063"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74074,6 +74074,43 @@
         </is>
       </c>
     </row>
+    <row r="2063">
+      <c r="A2063" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2063" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2063" t="inlineStr">
+        <is>
+          <t>7132</t>
+        </is>
+      </c>
+      <c r="D2063" t="inlineStr">
+        <is>
+          <t>SMISCOR</t>
+        </is>
+      </c>
+      <c r="E2063" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F2063" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G2063" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H2063" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I2063" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7132.xlsx
+++ b/data/7132.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2063"/>
+  <dimension ref="A1:I2064"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74111,6 +74111,43 @@
         </is>
       </c>
     </row>
+    <row r="2064">
+      <c r="A2064" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2064" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2064" t="inlineStr">
+        <is>
+          <t>7132</t>
+        </is>
+      </c>
+      <c r="D2064" t="inlineStr">
+        <is>
+          <t>SMISCOR</t>
+        </is>
+      </c>
+      <c r="E2064" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F2064" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G2064" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H2064" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I2064" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7132.xlsx
+++ b/data/7132.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2064"/>
+  <dimension ref="A1:I2065"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74148,6 +74148,43 @@
         </is>
       </c>
     </row>
+    <row r="2065">
+      <c r="A2065" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2065" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2065" t="inlineStr">
+        <is>
+          <t>7132</t>
+        </is>
+      </c>
+      <c r="D2065" t="inlineStr">
+        <is>
+          <t>SMISCOR</t>
+        </is>
+      </c>
+      <c r="E2065" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F2065" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G2065" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H2065" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I2065" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7132.xlsx
+++ b/data/7132.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2065"/>
+  <dimension ref="A1:I2066"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74185,6 +74185,43 @@
         </is>
       </c>
     </row>
+    <row r="2066">
+      <c r="A2066" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2066" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2066" t="inlineStr">
+        <is>
+          <t>7132</t>
+        </is>
+      </c>
+      <c r="D2066" t="inlineStr">
+        <is>
+          <t>SMISCOR</t>
+        </is>
+      </c>
+      <c r="E2066" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F2066" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G2066" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H2066" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I2066" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
